--- a/app/static/uploads/init/MRVendor.xlsx
+++ b/app/static/uploads/init/MRVendor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dp/midorvendor/app/static/uploads/init/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabella/Desktop/QUASAR/Progetti/MIDOR/VENDOR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F7F072-4A6F-6F42-BF24-6FBA6890BE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE80323-47C1-A644-B33C-E20A2AC65F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9EEFF23C-1E92-EB43-A453-C40F04259E88}"/>
+    <workbookView xWindow="12100" yWindow="460" windowWidth="16700" windowHeight="16500" xr2:uid="{9EEFF23C-1E92-EB43-A453-C40F04259E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio2" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="679">
   <si>
     <t>MR Number</t>
   </si>
@@ -96,9 +96,6 @@
     <t>2544-00-MR-0470-101</t>
   </si>
   <si>
-    <t>UOP SRL - MR 0470-101 0570-</t>
-  </si>
-  <si>
     <t>2544-00-MR-0511-101</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>2544-00-MR-0811-103</t>
   </si>
   <si>
-    <t>PETROJET MR-0811-103</t>
-  </si>
-  <si>
     <t>2544-00-MR-0811-104</t>
   </si>
   <si>
@@ -243,15 +237,9 @@
     <t>2544-00-MR-0853-101</t>
   </si>
   <si>
-    <t>CROLL REYNOLDS COMPANY</t>
-  </si>
-  <si>
     <t>2544-00-MR-0910-101</t>
   </si>
   <si>
-    <t>NUOVO PIGNONE</t>
-  </si>
-  <si>
     <t>2544-00-MR-0910-105</t>
   </si>
   <si>
@@ -261,9 +249,6 @@
     <t>2544-00-MR-0910-106</t>
   </si>
   <si>
-    <t>WORTHINGTON SRL</t>
-  </si>
-  <si>
     <t>2544-00-MR-0910-107</t>
   </si>
   <si>
@@ -315,9 +300,6 @@
     <t>2544-00-MR-0932-101</t>
   </si>
   <si>
-    <t>NETZSCH POMPE E SISTEMI</t>
-  </si>
-  <si>
     <t>2544-00-MR-0950-101</t>
   </si>
   <si>
@@ -348,9 +330,6 @@
     <t>2544-00-MR-1040-102</t>
   </si>
   <si>
-    <t>GARDNER DENVER DIV.</t>
-  </si>
-  <si>
     <t>2544-00-MR-1300-901</t>
   </si>
   <si>
@@ -435,9 +414,6 @@
     <t>2544-00-MR-1515-103</t>
   </si>
   <si>
-    <t>GE MEASUREMENT AND</t>
-  </si>
-  <si>
     <t>2544-00-MR-1574-101</t>
   </si>
   <si>
@@ -489,9 +465,6 @@
     <t>2544-00-MR-4151-101</t>
   </si>
   <si>
-    <t>GEA REFRIGERATION ITALY</t>
-  </si>
-  <si>
     <t>2544-00-MR-4171-101</t>
   </si>
   <si>
@@ -657,9 +630,6 @@
     <t>MATERIAL REQUISITION FOR SHELL AND TUBE HEAT EXCHANGERS</t>
   </si>
   <si>
-    <t>MATERIAL REQUISITION FOR HIGH PERFORMANCE TUBES FOR HEAT EXCHANGERS (EX 2544-00-DL-0610-103)</t>
-  </si>
-  <si>
     <t>MATERIAL REQUISITION FOR VAPORIZER</t>
   </si>
   <si>
@@ -687,9 +657,6 @@
     <t>MATERIAL REQUISITION FOR PRESSURE VESSELS GREEN-BROWN FIELD</t>
   </si>
   <si>
-    <t xml:space="preserve">MATERIAL REQUISITION FOR FILTERS </t>
-  </si>
-  <si>
     <t>MATERIAL REQUISITION FOR COALESCERS</t>
   </si>
   <si>
@@ -843,24 +810,15 @@
     <t>SUBCONTRACT BETWEEN TPIT EGYPT BRANCH AND PETROJET - UNDERGROUNG</t>
   </si>
   <si>
-    <t>SUBCONTRACT BETWEEN TPIT EGYPT BRANCH AND PETROJET -</t>
-  </si>
-  <si>
     <t>SUBCONTRACT BETWEEN TPIT EGYPT BRANCH AND PETROJET - ELECTRICAL</t>
   </si>
   <si>
-    <t>SUBCONTRACT BETWEEN TPIT EGYPT BRANCH AND PETROJET - CIVIL -WORKS</t>
-  </si>
-  <si>
     <t>SUBCONTRACT BETWEEN TPIT EGYPT BRANCH AND PETROJET - STRUCTURES</t>
   </si>
   <si>
     <t>SUBCONTRACT BETWEEN TPIT EGYPT BRANCH AND PETROJET - BUILDINGS</t>
   </si>
   <si>
-    <t xml:space="preserve">ELECTRICAL BUILDINGS </t>
-  </si>
-  <si>
     <t>SUBCONTRACT BETWEEN TPIT EGYPT BRANCH AND PETROJET - INSULATION</t>
   </si>
   <si>
@@ -898,22 +856,1226 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>2544-11-MR-0710-R51</t>
+  </si>
+  <si>
+    <t>2544-11-MR-0811-R53</t>
+  </si>
+  <si>
+    <t>2544-11-MR-0910-R51</t>
+  </si>
+  <si>
+    <t>2544-00-MR-0470-R02</t>
+  </si>
+  <si>
+    <t>2544-00-MR-0610-104</t>
+  </si>
+  <si>
+    <t>2544-00-MR-0910-R01</t>
+  </si>
+  <si>
+    <t>2544-00-MR-0710-R01</t>
+  </si>
+  <si>
+    <t>2544-00-MR-0836-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-0852-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-0940-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1310-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1310-102</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1310-108</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1310-112</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1310-114</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1310-922</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1641-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1652-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1541-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1541-102</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1543-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1543-102</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1543-103</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1544-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1545-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1546-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1547-103</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1547-104</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1547-105</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1547-107</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1554-106</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1621-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1652-R01</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1654-R01</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1684-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1800-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1800-102</t>
+  </si>
+  <si>
+    <t>2544-00-MR-1820-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-4046-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-4261-101</t>
+  </si>
+  <si>
+    <t>2544-00-MR-6720-103</t>
+  </si>
+  <si>
+    <t>2544-00-MR-6720-104</t>
+  </si>
+  <si>
+    <t>2544-00-WC-2000-01A</t>
+  </si>
+  <si>
+    <t>2544-00-WC-2000-01B</t>
+  </si>
+  <si>
+    <t>2544-00-WC-2000-01C</t>
+  </si>
+  <si>
+    <t>2544-00-WC-2000-01D</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0110-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0310-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0511-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0511-202</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0570-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0570-202</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0570-203</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0610-202</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0610-203</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0610-204</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0630-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0710-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0811-203</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0811-204</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0841-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0846-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0851-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1310-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1310-204</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1310-212</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1310-214</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1321-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1322-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1324-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1328-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1329-205</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1330-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1340-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1350-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1410-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1511-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1515-203</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1543-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1543-202</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1545-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1552-206</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1621-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0852-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0910-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0910-205</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0912-202</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-0920-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1020-201</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0168-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0172-401</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1641-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1652-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-1671-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-2410-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-2520-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-4046-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-4118-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-4141-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-4261-201</t>
+  </si>
+  <si>
+    <t>2544-0A-MR-4263-201</t>
+  </si>
+  <si>
+    <t>2544-0A-WC-0000-002</t>
+  </si>
+  <si>
+    <t>2544-0A-WC-1300-002</t>
+  </si>
+  <si>
+    <t>2544-0A-WC-1400-002</t>
+  </si>
+  <si>
+    <t>2544-0A-WC-1500-002</t>
+  </si>
+  <si>
+    <t>2544-0A-WC-1600-002</t>
+  </si>
+  <si>
+    <t>2544-0A-WC-1700-002</t>
+  </si>
+  <si>
+    <t>2544-0A-WC-1800-002</t>
+  </si>
+  <si>
+    <t>2544-0A-WC-2000-002</t>
+  </si>
+  <si>
+    <t>2544-0A-WC-2200-002</t>
+  </si>
+  <si>
+    <t>2544-0A-WC-2300-002</t>
+  </si>
+  <si>
+    <t>2544-0A-WC-6800-002</t>
+  </si>
+  <si>
+    <t>2544-0A-WC-8210-002</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0127-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0132-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0140-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0191-402</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0411-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0511-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0570-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0610-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0610-402</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0630-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0661-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0710-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0811-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0811-402</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0813-402</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0836-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0841-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0852-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0852-402</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0853-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0910-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0910-402</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0910-403</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1040-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1042-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1300-901</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1310-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1310-402</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-0191-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1310-404</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1310-408</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1310-414</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1310-901</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1321-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1321-402</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1324-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1329-405</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1330-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1340-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1350-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1541-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1543-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1547-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1547-402</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1611-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1622-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1623-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1630-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1631-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-1684-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-2520-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-4046-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-4263-401</t>
+  </si>
+  <si>
+    <t>2544-0C-MR-4300-401</t>
+  </si>
+  <si>
+    <t>WORTHINGTON SRL (FLOWSERVE)</t>
+  </si>
+  <si>
+    <t>FLOWSERVE 0910-R01/R51</t>
+  </si>
+  <si>
+    <t>NUOVO PIGNONE INTERNATIONAL SRL</t>
+  </si>
+  <si>
+    <t>VERGAENGINEERING MR0110-RXX</t>
+  </si>
+  <si>
+    <t>UOP SRL - MR 0470-101 0570-201</t>
+  </si>
+  <si>
+    <t>SLA SOCIETA' LAVORAZIONE ACCIAI</t>
+  </si>
+  <si>
+    <t>PETROJET MR-0811</t>
+  </si>
+  <si>
+    <t>STOPSON ITALIANA SRL</t>
+  </si>
+  <si>
+    <t>CROLL REYNOLDS COMPANY INC</t>
+  </si>
+  <si>
+    <t>NETZSCH POMPE E SISTEMI ITALIA SRL</t>
+  </si>
+  <si>
+    <t>SEKO SPA</t>
+  </si>
+  <si>
+    <t>GARDNER DENVER DIV. ROBUSCHI</t>
+  </si>
+  <si>
+    <t>CHERO PIPING MR-1310-101</t>
+  </si>
+  <si>
+    <t>NEWAY VALVE EUROPE SRL</t>
+  </si>
+  <si>
+    <t>OMB VALVES SPA</t>
+  </si>
+  <si>
+    <t>VALVITALIA SPA</t>
+  </si>
+  <si>
+    <t>ABB POWER GRIDS SPA</t>
+  </si>
+  <si>
+    <t>SCHNEIDER ELECTRIC SPA</t>
+  </si>
+  <si>
+    <t>GE MEASUREMENT AND CONTROL</t>
+  </si>
+  <si>
+    <t>KOSO PARCOL SRL</t>
+  </si>
+  <si>
+    <t>DRESSER</t>
+  </si>
+  <si>
+    <t>SFEROVA SRL</t>
+  </si>
+  <si>
+    <t>CAMERON ITALY GROVE FACILITY</t>
+  </si>
+  <si>
+    <t>PETROLVALVES SPA</t>
+  </si>
+  <si>
+    <t>BIFFI ITALIA SRL</t>
+  </si>
+  <si>
+    <t>TM TECNOMATIC SRL</t>
+  </si>
+  <si>
+    <t>EMERSON PROCESS MANAGEMENT</t>
+  </si>
+  <si>
+    <t>BOPP REUTHER ITALIA SRL</t>
+  </si>
+  <si>
+    <t>ENDRESS+HAUSER ITALIA SPA</t>
+  </si>
+  <si>
+    <t>GE MEASUREMENT AND CONTROL 1547-107</t>
+  </si>
+  <si>
+    <t>WIKA ITALIA SRL</t>
+  </si>
+  <si>
+    <t>EL SEWEDY CABLES EGYPT</t>
+  </si>
+  <si>
+    <t>G&amp;W SRL</t>
+  </si>
+  <si>
+    <t>METEC WILSON WALTON SRL</t>
+  </si>
+  <si>
+    <t>ARAB STEEL FABRICATION CO</t>
+  </si>
+  <si>
+    <t>GEA REFRIGERATION ITALY SPA</t>
+  </si>
+  <si>
+    <t>ANTICO OLINDO E CESARE SRL</t>
+  </si>
+  <si>
+    <t>ISS PALUMBO SRL</t>
+  </si>
+  <si>
+    <t>SPIG SPA - ITALY</t>
+  </si>
+  <si>
+    <t>KOCH GLITSCH - MR-0570-202</t>
+  </si>
+  <si>
+    <t>RAVAGNAN S.P.A. ITALY</t>
+  </si>
+  <si>
+    <t>OCS SPA MR-0610-203</t>
+  </si>
+  <si>
+    <t>HEMACO SRL</t>
+  </si>
+  <si>
+    <t>RAVAGNAN S.P.A.</t>
+  </si>
+  <si>
+    <t>LVF SPA</t>
+  </si>
+  <si>
+    <t>FLOWSERVE - MR 1310-204</t>
+  </si>
+  <si>
+    <t>ORION SPA 0A-MR-1310-212</t>
+  </si>
+  <si>
+    <t>SARPLAST SRL - MR-1328-201</t>
+  </si>
+  <si>
+    <t>ALLIED INT SRL - MR-1330-201</t>
+  </si>
+  <si>
+    <t>CHERO PIPING SPA MR-1340-201</t>
+  </si>
+  <si>
+    <t>OFFIC N GALPERTI-MR-1350-201</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>GE MEASUREMENT AND CONTROL 1515-203</t>
+  </si>
+  <si>
+    <t>DAFRAM SPA MR-1543-201</t>
+  </si>
+  <si>
+    <t>DRESSER SRL MR-1545-201</t>
+  </si>
+  <si>
+    <t>BERTHOLD SRL 1552-206</t>
+  </si>
+  <si>
+    <t>EGYTECH CABLES MR-1621-201</t>
+  </si>
+  <si>
+    <t>FLOWSERVE - MR 0910-201</t>
+  </si>
+  <si>
+    <t>FERBECK INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>ABB POWER GRIDS SPA 1641-201</t>
+  </si>
+  <si>
+    <t>ABB SPA MR-1652-201</t>
+  </si>
+  <si>
+    <t>CEG SPA MR-1671-201</t>
+  </si>
+  <si>
+    <t>ICP SRL MR-2410-201</t>
+  </si>
+  <si>
+    <t>LEWA NIKKISO SRL 4046-201</t>
+  </si>
+  <si>
+    <t>FILTERS SPA MR-4118-201</t>
+  </si>
+  <si>
+    <t>FRAMES-NETHERLANDS</t>
+  </si>
+  <si>
+    <t>SULZER SRL - MR-4263-201</t>
+  </si>
+  <si>
+    <t>CALDERYS ITALIA SRL</t>
+  </si>
+  <si>
+    <t>DE IULIIS MACCHINE SPA</t>
+  </si>
+  <si>
+    <t>I.C.E. SRL</t>
+  </si>
+  <si>
+    <t>GRANDE MECCANICA S.P.A.</t>
+  </si>
+  <si>
+    <t>FBM HUDSON - MR-0511-401</t>
+  </si>
+  <si>
+    <t>SONDEX ITALIA SRL</t>
+  </si>
+  <si>
+    <t>SCHWARTZ-HAUTMONT S.A.</t>
+  </si>
+  <si>
+    <t>GBM SRL - MR-0813-402</t>
+  </si>
+  <si>
+    <t>Bosco Italia S.p.A.</t>
+  </si>
+  <si>
+    <t>SCAM SRL - MR-0852-401</t>
+  </si>
+  <si>
+    <t>CARRARO SRL</t>
+  </si>
+  <si>
+    <t>ITT RHEINHUETTE PUMPEN GMBH</t>
+  </si>
+  <si>
+    <t>TMP TERMOMECCANICA MR-0910-403</t>
+  </si>
+  <si>
+    <t>HOWDEN TURBOMACHINERY SRL</t>
+  </si>
+  <si>
+    <t>BOLDROCCHI SRL</t>
+  </si>
+  <si>
+    <t>ICARUS 0C-MR</t>
+  </si>
+  <si>
+    <t>NEWAY VALVE EUROPE</t>
+  </si>
+  <si>
+    <t>ITAL PIPING SRL 0C-MR-1310-901</t>
+  </si>
+  <si>
+    <t>CONTINENTAL SPA - MR-1330-401</t>
+  </si>
+  <si>
+    <t>Dresser ITALIA srl</t>
+  </si>
+  <si>
+    <t>FLOWSERVE - MR 1543-401</t>
+  </si>
+  <si>
+    <t>YOKOGAWA ITALIA S.R.L.</t>
+  </si>
+  <si>
+    <t>CENTRO E SRL</t>
+  </si>
+  <si>
+    <t>SPINA GROUP - MR-1622-401</t>
+  </si>
+  <si>
+    <t>SPINA GROUP - MR-1623-401</t>
+  </si>
+  <si>
+    <t>CENTRO E</t>
+  </si>
+  <si>
+    <t>LEONCINI COSTR. MECCANICHE SRL</t>
+  </si>
+  <si>
+    <t>IPCO ITALY S.R.L.</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR AIR COOLED HEAT EXCHANGERS (REVAMPING) UNIT 11</t>
+  </si>
+  <si>
+    <t>DEBUTANIZER - ITE, 11-T-06 (REVAMP)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CENTRIFUGAL PUMPS (REVAMPING) FOR FLOWSERVE</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR EXISTING REACTORS (REVAMPING)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR TEMA S&amp;T HEAT EXCHANGERS BROWN FIELD</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR HIGH PERFORMANCE TUBES FOR HEAT EXCHANGERS (EX 2544-00-MR-0610-103)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CENTRIFUGAL PUMPS (REVAMPING) FOR FLOWSERVE (EX MIDOR 2544-00-MR-0910-R02)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR MOTORS AND FANS FOR EXISTING AIRCOOLER (REVAMPING)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR SILENCERS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR FILTERS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR EJECTORS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR PROPORTIONING PUMPS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR RECIPROCATING COMPRESSORS (REF. TO 2544-00-MR-1020-301)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR GATE GLOBE AND CHECK FORGED VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR GATE GLOBE &amp; CHECK CAST VALVES (#150-300-600)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR BALL VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR GATE GLOBE &amp; CHECK CAST VALVES HIGH RATING (#900-1500-2500)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR DUAL PLATE CHECK VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR BULK MATERIAL CAST VALVES FOR TIE-INS FRAME AGREEMENT</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR EL. POWER AND DISTRIBUTION TRANSF. NEUTRAL GROUNDING RESISTORS AND FEEDER CURRENT LIMITING REAC</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR NEW 33KV AND 66KV MEDIUM VOLTAGE SWITCHGEARS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUSITION FOR CONTROL VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR PNEUMATIC  FOR ON OFF VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR ELECTRICAL OPERATED VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR PNEUMATIC  FOR ELECTRIC OPERATED VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR PNEUMATIC ACTUATORS FOR ON OFF VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR PRESSURE SAFETY VALVES AND RUPTURE DISKS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR DIFFERENTIAL FLOW ELEMENTS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR TURBINE FLOW METERS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR MAGNETIC FLOW METERS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR ULTRASONIC FLOW METERS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR MULTI THERMOCOUPLES AND THERMOWELLS FOR REACTORS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR POWER, CONTROL AND EARTHING CABLES &amp; MEDIUM VOLTAGE CABLE TERMINALS AND JOINTS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR 66KV MEDIUM VOLTAGE SWITCHGEARS REVAMPING AND NEW 33KW SWITCHGEAR IN S/S1</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR LOW VOLTAGE SWITCHGEARS (REVAMPING)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CATHODIC PROTECTION SYSTEM</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR STEEL STRUCTURES - UNITS 18-20-21</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR STEEL STRUCTURES - UNITS 46-51-52-53-58-60</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR LADDERS AND PLATFORMS FOR PRESSURE EQUIPMENT</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR DOSING SYSTEMS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR MECHANICAL AGITATORS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR TRANSPORT SERVICES - OFFSHORE</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR TRANSPORT SERVICES - ONSHORE</t>
+  </si>
+  <si>
+    <t>SUBCONTRACT BETWEEN TPIT EGYPT BRANCH AND PETROJET - INSTRUMENTATION</t>
+  </si>
+  <si>
+    <t>SUBCONTRACT BETWEEN TPIT EGYPT BRANCH AND PETROJET - CIVIL WORKS</t>
+  </si>
+  <si>
+    <t>HEATING - VENTILATION - AIR CONDITIONING</t>
+  </si>
+  <si>
+    <t>ELECTRICAL SYSTEM</t>
+  </si>
+  <si>
+    <t>COMMUNICATION SYSTEM</t>
+  </si>
+  <si>
+    <t>FIRE PROTECTION, FIRE DETECTION ,GAS DETECTION ALARM SYSTEM &amp; CABLES WAYS</t>
+  </si>
+  <si>
+    <t>ELECTRICAL BUILDINGS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR COOLING TOWERS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR MAIN SHOP ASSEMBLED COLUMNS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR SMALL SHOP ASSEMBLED COLUMNS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR PROPRIETARY INTERNALS FOR MAIN SHOP ASSEMBLED COLUMNS (REF TO 2544-00-MR-0570-01)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR INTERNALS FOR MAIN SHOP ASSEMBLED COLUMNS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR SPECIAL MATERIAL SHELL AND TUBE HEAT EXCHANGERS (EX 2544-0A-MR-0610-201)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR HAIR PIN HEAT EXCHANGERS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR PRESSURE VESSELS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR BACKWASH FILTERS PACKAGE (EX MIDOR CODE 2544-0A-MR-0846-201)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR VACUUM UNIT PACKAGE (REF: 00-MR-0851-001)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR BUTTERFLY VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CAST VALVES HIGH RATING</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CARBON STEEL SEAMLESS AND WELDED PIPES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR ALLOY STEEL SEAMLESS AND WELDED PIPES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR STAINLESS STEEL SMLS &amp; WLD PIPES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR FIBERGLASS REINFORCED PLASTIC GRP PIPING</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR PE COATED SMLS AND WLD PIPES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR BW FITTINGS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR FORGED FITTINGS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR FLANGES BLINDS &amp; DRIP RINGS</t>
+  </si>
+  <si>
+    <t>ADDITIONAL GROUND INVESTIGATION AND TECHNICAL DOCUMENTS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR INTEGRATED CONTROL AND SAFETY SYSTEM (EX MIDOR CODE 2544-0A-MR-1511-201)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR MACHINE MONITORING SYSTEM (MMS)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR PNEUMATIC ON-OFF VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR ELECTRIC OPERATED VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR NUCLEAR LEVEL INSTRUMENTS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR POWER CONTROL AND EARTHING CABLES AND MEDIUM VOLTAGE CABLE TERMINALS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR EDUCTORS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR SEALLESS PUMPS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR SUBMERGIBLE PUMPS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR THERMAL REACTOR - WASTE HEAT BOILER - WHB STEAM DRUM (EX 2544-00-MR-0168-401)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR STACK (EX 2544-00-MR-0172-401)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR ELECTRICAL POWER AND DISTRIBUTION TRANSFORMERS AND NEUTRAL GROUNDING RESISTORS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR MEDIUM VOLTAGE SWITCHGEAR (6.6KV)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR AC AND DC UPS SYSTEMS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CATHODIC PROTECTION</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR SITE-ASSEMBLED STORAGE TANKS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CHEMICAL INJECTION DOSING SYSTEM</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR FUEL GAS PREPARATION PACKAGE</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR DESALTER PACKAGE (EX 2544-00-MR-4141-201)</t>
+  </si>
+  <si>
+    <t>SUBCONTRACT BETWEEN ENPPI AND PETROJET - COMMON DOCUMENTS</t>
+  </si>
+  <si>
+    <t>SUBCONTRACT BETWEEN ENPPI AND PETROJET - PREFAB/ERECTION</t>
+  </si>
+  <si>
+    <t>SUBCONTRACT BETWEENENPPI AND PETROJET - UNDERGROUNG</t>
+  </si>
+  <si>
+    <t>SUBCONTRACT ENPPI AND PETROJET - INSTRUMENTATION</t>
+  </si>
+  <si>
+    <t>SUBCONTRACT BETWEEN ENPPI AND PETROJET - ELECTRICAL</t>
+  </si>
+  <si>
+    <t>SUBCONTRACT BETWEEN ENPPI AND PETROJET - CIVIL WORKS</t>
+  </si>
+  <si>
+    <t>SUBCONTRACT BETWEEN ENPPI AND PETROJET - STRUCTURES</t>
+  </si>
+  <si>
+    <t>SUBCONTRACT BETWEEN ENPPI AND PETROJET - BUILDINGS</t>
+  </si>
+  <si>
+    <t>SUBCONTRACT BETWEEN ENPPI AND PETROJET - INSULATION</t>
+  </si>
+  <si>
+    <t>SUBCONTRACT BETWEEN ENPPI AND PETROJET - PAINTING</t>
+  </si>
+  <si>
+    <t>SUBCONTRACT BETWEEN ENPPI AND PETROJET - MECHANICAL</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CONVECTION MODULES PACKAGE (REF. 2544-00-MR-0127-401)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR REFRACTORY LINING MATERIAL</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR INCINERATOR (EX-2544-00-MR-0140-401)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR INCINERATOR BURNER (REF 2544-00-MR-0191-402)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR SULPHUR REACTORS (EX 2544-00-MR-0410-401)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR SHOP ASSEMBLED COLUMNS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR TRAYS AND INTERNALS (PACKING) (REF. 2544-00-MR-0570-002)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR SULPHUR CONDENSERS (EX 2544-00-MR-0610-403)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR DOUBLE PIPE HEAT EXCHANGERS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR PLATE HEAT EXCHANGERS (EX 2544-00-MR-0661-401)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR AIR COOLED HEAT EXCHANGERS (REF. 2544-00-MR-0710-001)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR SPECIAL SERVICE PRESSURE VESSELS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR HYDRAULIC SEALS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR DESUPERHEATERS (REF. 2544-00-MR-0853-001)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR VERTICAL SULPHUR PUMPS (EX 2544-00-MR-0910-402)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CENTRIFUGAL PUMPS (EX 2544-00-MR-0910-001)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR COMBUSTION AIR BLOWERS (EX 2544-00-MR-1041-401)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR INCINERATOR AIR FANS (EX 2544-00-MR-1042-401)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION PIPING FOR TIE-IN</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR FORGED VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CAST VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR THERMAL REACTOR BURNER (EX 2544-00-MR-0191-401)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION VALVES FOR TIE-IN</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CARBON STEEL AND ALLOY STEEL SEAMLSESS PIPES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CARBON AND ALLOY STEEL WELDED PIPES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR STAINLESS STEEL PIPES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR PE COATED PIPES (UG)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR BUTT WELDING FITTINGS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR FLANGES BLANKS AND DRIP RING</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CONTROL VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR PNEUMATIC ON OFF VALVES</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR SPECIAL FLOW METERS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR VARIABLE AREA FLOWMETER</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR EARTHING AND LIGHTNING MATERIAL</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR ELECTRICAL CONDUITS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR ELECTRICAL CABLE TRAYS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR LIGHTING MATERIAL</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR LIGHTING PANELS</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR STORAGE TANKS (REF. 2544-00-MR-2520-402/101)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR STATIC MIXERS (REF. 2544-00-MR-4263-101)</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR SULPHUR SOLIDIFICATION PACKAGE (REF.2544-00-MR-4300-402)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -941,13 +2103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -963,7 +2124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1259,10 +2420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742641C8-5CCC-F24F-8659-E2E2F6359F88}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1274,454 +2435,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>288</v>
+      <c r="C1" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>191</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>194</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>442</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>443</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>199</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>444</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>445</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>446</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>278</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>447</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>213</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>223</v>
+        <v>541</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>224</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>442</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1729,802 +2890,2639 @@
         <v>79</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>227</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>227</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>448</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>231</v>
+        <v>545</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>232</v>
+        <v>546</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>102</v>
+        <v>283</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>237</v>
+        <v>547</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>444</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>111</v>
+        <v>442</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>117</v>
+        <v>442</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>129</v>
+        <v>451</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>130</v>
+        <v>284</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>131</v>
+        <v>452</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>252</v>
+        <v>548</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>134</v>
+        <v>444</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>138</v>
+        <v>444</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>140</v>
+        <v>444</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>257</v>
+        <v>549</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>144</v>
+        <v>453</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>148</v>
+        <v>454</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>261</v>
+        <v>550</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>150</v>
+        <v>455</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>262</v>
+        <v>551</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>152</v>
+        <v>456</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>263</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>153</v>
+        <v>288</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>264</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>155</v>
+        <v>289</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>265</v>
+        <v>554</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>161</v>
+        <v>290</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>269</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>159</v>
+        <v>458</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>273</v>
+        <v>556</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>159</v>
+        <v>459</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>274</v>
+        <v>557</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>44</v>
+        <v>460</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>177</v>
+        <v>293</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>46</v>
+        <v>461</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>282</v>
+        <v>558</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>56</v>
+        <v>462</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>283</v>
+        <v>558</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>179</v>
+        <v>295</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>180</v>
+        <v>463</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>284</v>
+        <v>559</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>60</v>
+        <v>464</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>285</v>
+        <v>560</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>74</v>
+        <v>465</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>226</v>
+        <v>561</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>76</v>
+        <v>466</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>227</v>
+        <v>562</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>184</v>
+        <v>299</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>227</v>
+        <v>563</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>96</v>
+        <v>467</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>233</v>
+        <v>564</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>72</v>
+        <v>468</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>286</v>
+        <v>565</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>188</v>
+        <v>469</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>287</v>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
